--- a/liquidity_analysis_results.xlsx
+++ b/liquidity_analysis_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL23"/>
+  <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,135 +492,145 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>london_sweep_asia_high_time</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>london_sweep_asia_low_time</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>london_high_time</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>london_low_time</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>sweep_type</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>london_direction</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>rebalance</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>extension_pips</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>extension_percent</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>max_time</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>min_time</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>reverse_pips</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>reverse_percent</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>retest_sweep_level</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>asia_mid_retest</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>pdh</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>pdl</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>sweep_pdh</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>sweep_pdl</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>pdh_time</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>pdl_time</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>ny_direction</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>ny_status</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>ny_up_extension_pips</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>ny_up_extension_percent</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>ny_down_extension_pips</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>ny_down_extension_percent</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ny_max_high_time</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>ny_min_low_time</t>
         </is>
@@ -680,93 +690,103 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>10:18</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>14:47</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>Sweep and Reverse</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
         <v>6.6</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>14.16</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>10:19</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>14:47</t>
         </is>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>68.3</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>146.57</v>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>Reverse</t>
         </is>
       </c>
-      <c r="AG2" t="n">
+      <c r="AI2" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AJ2" t="n">
         <v>31.11588</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AK2" t="n">
         <v>6.1</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AL2" t="n">
         <v>13.09013</v>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>17:48</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>15:03</t>
         </is>
@@ -822,101 +842,107 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
+          <t>13:01</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>Sweep and Reverse</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
         <v>24.1</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>39.38</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>13:02</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>14:56</t>
         </is>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>34.7</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
         <v>56.7</v>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Y3" t="n">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
         <v>1.13409</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AB3" t="n">
         <v>1.12657</v>
       </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
           <t>13:01</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr">
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="AG3" t="n">
+      <c r="AI3" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AJ3" t="n">
         <v>16.01307</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AK3" t="n">
         <v>36.9</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AL3" t="n">
         <v>60.29412</v>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>15:16</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>17:54</t>
         </is>
@@ -972,101 +998,107 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
+          <t>12:06</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>Sweep and Reverse</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
         <v>17</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>46.96</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>12:07</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>36.8</v>
       </c>
-      <c r="V4" t="n">
+      <c r="X4" t="n">
         <v>101.66</v>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Y4" t="n">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA4" t="n">
         <v>1.13278</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AB4" t="n">
         <v>1.12905</v>
       </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
           <t>12:06</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr">
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
         <v>6.7</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AJ4" t="n">
         <v>18.50829</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AK4" t="n">
         <v>17.2</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AL4" t="n">
         <v>47.51381</v>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>18:27</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>17:03</t>
         </is>
@@ -1122,101 +1154,107 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>Sweep and Reverse</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
         <v>12.9</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>27.92</v>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>13:37</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>14:47</t>
         </is>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>14.1</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
         <v>30.52</v>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y5" t="n">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA5" t="n">
         <v>1.13646</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AB5" t="n">
         <v>1.12806</v>
       </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
           <t>13:16</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr">
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>Reverse</t>
         </is>
       </c>
-      <c r="AG5" t="n">
+      <c r="AI5" t="n">
         <v>37.4</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AJ5" t="n">
         <v>80.95238000000001</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AK5" t="n">
         <v>12.8</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AL5" t="n">
         <v>27.70563</v>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>18:48</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>15:15</t>
         </is>
@@ -1266,91 +1304,101 @@
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
         <is>
           <t>No Sweep</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y6" t="n">
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>10:24</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>14:36</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="X6" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA6" t="n">
         <v>1.13808</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AB6" t="n">
         <v>1.12797</v>
       </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="AG6" t="n">
+      <c r="AI6" t="n">
         <v>18</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AJ6" t="n">
         <v>43.16547</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AK6" t="n">
         <v>46.5</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AL6" t="n">
         <v>111.51079</v>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>17:08</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>18:42</t>
         </is>
@@ -1404,103 +1452,109 @@
           <t>14:57</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>14:57</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>Continue</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
         <v>26.3</v>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
         <v>39.85</v>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>14:58</t>
         </is>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>-20.6</v>
       </c>
-      <c r="V7" t="n">
+      <c r="X7" t="n">
         <v>-31.21</v>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y7" t="n">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA7" t="n">
         <v>1.1378</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AB7" t="n">
         <v>1.12917</v>
       </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="AD7" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
           <t>14:57</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="AG7" t="n">
+      <c r="AI7" t="n">
         <v>1.8</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AJ7" t="n">
         <v>2.72727</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AK7" t="n">
         <v>35.9</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AL7" t="n">
         <v>54.39394</v>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>18:26</t>
         </is>
@@ -1556,97 +1610,103 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
+          <t>13:27</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>Continue</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
         <v>32.2</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>77.22</v>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>13:28</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>14:18</t>
         </is>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>-0.3</v>
       </c>
-      <c r="V8" t="n">
+      <c r="X8" t="n">
         <v>-0.72</v>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y8" t="n">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA8" t="n">
         <v>1.13361</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
         <v>1.12118</v>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>Reverse</t>
         </is>
       </c>
-      <c r="AG8" t="n">
+      <c r="AI8" t="n">
         <v>5.7</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AJ8" t="n">
         <v>13.66906</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AK8" t="n">
         <v>21.1</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AL8" t="n">
         <v>50.59952</v>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>15:03</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>18:33</t>
         </is>
@@ -1696,95 +1756,105 @@
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
         <is>
           <t>No Sweep</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y9" t="n">
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>33.72</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="W9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA9" t="n">
         <v>1.12389</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AB9" t="n">
         <v>1.119</v>
       </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="AD9" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>Reverse</t>
         </is>
       </c>
-      <c r="AG9" t="n">
+      <c r="AI9" t="n">
         <v>5.7</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AJ9" t="n">
         <v>3.48198</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AK9" t="n">
         <v>40</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AL9" t="n">
         <v>24.43494</v>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>15:02</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>17:31</t>
         </is>
@@ -1840,97 +1910,103 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
+          <t>14:57</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>Continue</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
         <v>53.3</v>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
         <v>194.53</v>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>14:58</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>-49.6</v>
       </c>
-      <c r="V10" t="n">
+      <c r="X10" t="n">
         <v>-181.02</v>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y10" t="n">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA10" t="n">
         <v>1.12426</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AB10" t="n">
         <v>1.10651</v>
       </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="AG10" t="n">
+      <c r="AI10" t="n">
         <v>16.7</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
         <v>60.94891</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AK10" t="n">
         <v>10.5</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AL10" t="n">
         <v>38.32117</v>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>15:17</t>
         </is>
@@ -1980,95 +2056,105 @@
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
         <is>
           <t>No Sweep</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y11" t="n">
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>38.86</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>11:48</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>14:48</t>
+        </is>
+      </c>
+      <c r="W11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA11" t="n">
         <v>1.11971</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AB11" t="n">
         <v>1.10968</v>
       </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="AC11" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
           <t>11:48</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr">
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="AG11" t="n">
+      <c r="AI11" t="n">
         <v>8.1</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AJ11" t="n">
         <v>9.45158</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AK11" t="n">
         <v>39.5</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AL11" t="n">
         <v>46.09102</v>
       </c>
-      <c r="AK11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>15:08</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>18:56</t>
         </is>
@@ -2122,99 +2208,105 @@
           <t>14:44</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>14:44</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>Continue</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
         <v>11.9</v>
       </c>
-      <c r="R12" t="n">
+      <c r="T12" t="n">
         <v>27.93</v>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>14:45</t>
         </is>
       </c>
-      <c r="U12" t="n">
+      <c r="W12" t="n">
         <v>3.7</v>
       </c>
-      <c r="V12" t="n">
+      <c r="X12" t="n">
         <v>8.69</v>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y12" t="n">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA12" t="n">
         <v>1.12655</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AB12" t="n">
         <v>1.11645</v>
       </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="AG12" t="n">
+      <c r="AI12" t="n">
         <v>2.7</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AJ12" t="n">
         <v>6.33803</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AK12" t="n">
         <v>17.9</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AL12" t="n">
         <v>42.01878</v>
       </c>
-      <c r="AK12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>15:06</t>
         </is>
       </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>16:43</t>
         </is>
@@ -2268,103 +2360,109 @@
           <t>14:31</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>14:31</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>Continue</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
         <v>48</v>
       </c>
-      <c r="R13" t="n">
+      <c r="T13" t="n">
         <v>151.42</v>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>14:37</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="U13" t="n">
+      <c r="W13" t="n">
         <v>-37.7</v>
       </c>
-      <c r="V13" t="n">
+      <c r="X13" t="n">
         <v>-118.93</v>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y13" t="n">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA13" t="n">
         <v>1.12279</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AB13" t="n">
         <v>1.117</v>
       </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="AD13" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr">
+        <is>
           <t>14:31</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>Reverse</t>
         </is>
       </c>
-      <c r="AG13" t="n">
+      <c r="AI13" t="n">
         <v>18.3</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AJ13" t="n">
         <v>57.72871</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AK13" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AL13" t="n">
         <v>29.33754</v>
       </c>
-      <c r="AK13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>18:26</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>15:20</t>
         </is>
@@ -2414,95 +2512,105 @@
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
         <is>
           <t>No Sweep</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y14" t="n">
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="T14" t="n">
+        <v>40.16</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="W14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA14" t="n">
         <v>1.11985</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AB14" t="n">
         <v>1.11711</v>
       </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="AC14" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr">
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="AG14" t="n">
+      <c r="AI14" t="n">
         <v>5.8</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AJ14" t="n">
         <v>5.18784</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AK14" t="n">
         <v>12.1</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AL14" t="n">
         <v>10.8229</v>
       </c>
-      <c r="AK14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>18:58</t>
         </is>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>16:27</t>
         </is>
@@ -2556,99 +2664,105 @@
           <t>11:23</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>Sweep and Reverse</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
         <v>4.5</v>
       </c>
-      <c r="R15" t="n">
+      <c r="T15" t="n">
         <v>9.24</v>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>12:22</t>
         </is>
       </c>
-      <c r="U15" t="n">
+      <c r="W15" t="n">
         <v>40.6</v>
       </c>
-      <c r="V15" t="n">
+      <c r="X15" t="n">
         <v>83.37</v>
       </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Y15" t="n">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA15" t="n">
         <v>1.12879</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AB15" t="n">
         <v>1.11721</v>
       </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="AG15" t="n">
+      <c r="AI15" t="n">
         <v>29.7</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AJ15" t="n">
         <v>60.98563</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AK15" t="n">
         <v>7.8</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AL15" t="n">
         <v>16.01643</v>
       </c>
-      <c r="AK15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>18:47</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>15:35</t>
         </is>
@@ -2698,95 +2812,105 @@
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
         <is>
           <t>No Sweep</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y16" t="n">
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>13:11</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>11:37</t>
+        </is>
+      </c>
+      <c r="W16" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="X16" t="n">
+        <v>31.66</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA16" t="n">
         <v>1.13012</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AB16" t="n">
         <v>1.12235</v>
       </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="AC16" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
           <t>13:11</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr">
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="AG16" t="n">
+      <c r="AI16" t="n">
         <v>20.2</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AJ16" t="n">
         <v>40.48096</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AK16" t="n">
         <v>24.5</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AL16" t="n">
         <v>49.0982</v>
       </c>
-      <c r="AK16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>16:27</t>
         </is>
       </c>
-      <c r="AL16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>18:59</t>
         </is>
@@ -2840,103 +2964,109 @@
           <t>14:12</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>14:12</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
         <is>
           <t>Continue</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
         <v>24.2</v>
       </c>
-      <c r="R17" t="n">
+      <c r="T17" t="n">
         <v>46.81</v>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>14:30</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>14:13</t>
         </is>
       </c>
-      <c r="U17" t="n">
+      <c r="W17" t="n">
         <v>-1.9</v>
       </c>
-      <c r="V17" t="n">
+      <c r="X17" t="n">
         <v>-3.68</v>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y17" t="n">
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA17" t="n">
         <v>1.13628</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AB17" t="n">
         <v>1.12866</v>
       </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="AD17" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr">
+        <is>
           <t>14:12</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AG17" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="AG17" t="n">
+      <c r="AI17" t="n">
         <v>7.7</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AJ17" t="n">
         <v>14.89362</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AK17" t="n">
         <v>24.3</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AL17" t="n">
         <v>47.00193</v>
       </c>
-      <c r="AK17" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>15:39</t>
         </is>
       </c>
-      <c r="AL17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>16:28</t>
         </is>
@@ -2996,101 +3126,111 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>11:09</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
           <t>Sweep and Reverse</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
         <v>1.7</v>
       </c>
-      <c r="R18" t="n">
+      <c r="T18" t="n">
         <v>3.41</v>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>14:52</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>11:09</t>
         </is>
       </c>
-      <c r="U18" t="n">
+      <c r="W18" t="n">
         <v>60.3</v>
       </c>
-      <c r="V18" t="n">
+      <c r="X18" t="n">
         <v>120.84</v>
       </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Y18" t="n">
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA18" t="n">
         <v>1.13448</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AB18" t="n">
         <v>1.12558</v>
       </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="AC18" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
           <t>10:44</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr">
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
         <is>
           <t>Reverse</t>
         </is>
       </c>
-      <c r="AG18" t="n">
+      <c r="AI18" t="n">
         <v>19.6</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AJ18" t="n">
         <v>39.27856</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AK18" t="n">
         <v>8.5</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AL18" t="n">
         <v>17.03407</v>
       </c>
-      <c r="AK18" t="inlineStr">
+      <c r="AM18" t="inlineStr">
         <is>
           <t>17:18</t>
         </is>
       </c>
-      <c r="AL18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>15:04</t>
         </is>
@@ -3144,99 +3284,105 @@
           <t>11:28</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>11:28</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>Sweep and Reverse</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
         <v>6.9</v>
       </c>
-      <c r="R19" t="n">
+      <c r="T19" t="n">
         <v>16.2</v>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>11:30</t>
         </is>
       </c>
-      <c r="U19" t="n">
+      <c r="W19" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="V19" t="n">
+      <c r="X19" t="n">
         <v>22.77</v>
       </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y19" t="n">
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA19" t="n">
         <v>1.13977</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AB19" t="n">
         <v>1.13585</v>
       </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AH19" t="inlineStr">
         <is>
           <t>Reverse</t>
         </is>
       </c>
-      <c r="AG19" t="n">
+      <c r="AI19" t="n">
         <v>4.3</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AJ19" t="n">
         <v>10.0939</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AK19" t="n">
         <v>5.3</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AL19" t="n">
         <v>12.44131</v>
       </c>
-      <c r="AK19" t="inlineStr">
+      <c r="AM19" t="inlineStr">
         <is>
           <t>18:58</t>
         </is>
       </c>
-      <c r="AL19" t="inlineStr">
+      <c r="AN19" t="inlineStr">
         <is>
           <t>15:17</t>
         </is>
@@ -3290,103 +3436,109 @@
           <t>14:55</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>Continue</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
         <v>13.1</v>
       </c>
-      <c r="R20" t="n">
+      <c r="T20" t="n">
         <v>20.5</v>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>14:56</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>14:57</t>
         </is>
       </c>
-      <c r="U20" t="n">
+      <c r="W20" t="n">
         <v>-10.6</v>
       </c>
-      <c r="V20" t="n">
+      <c r="X20" t="n">
         <v>-16.59</v>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y20" t="n">
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA20" t="n">
         <v>1.14185</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AB20" t="n">
         <v>1.13688</v>
       </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="AD20" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr">
+        <is>
           <t>14:55</t>
         </is>
       </c>
-      <c r="AE20" t="inlineStr">
+      <c r="AG20" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
+      <c r="AH20" t="inlineStr">
         <is>
           <t>Reverse</t>
         </is>
       </c>
-      <c r="AG20" t="n">
+      <c r="AI20" t="n">
         <v>13.4</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AJ20" t="n">
         <v>20.97027</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AK20" t="n">
         <v>2</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AL20" t="n">
         <v>3.12989</v>
       </c>
-      <c r="AK20" t="inlineStr">
+      <c r="AM20" t="inlineStr">
         <is>
           <t>17:58</t>
         </is>
       </c>
-      <c r="AL20" t="inlineStr">
+      <c r="AN20" t="inlineStr">
         <is>
           <t>15:06</t>
         </is>
@@ -3440,103 +3592,109 @@
           <t>14:57</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>14:57</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
         <is>
           <t>Continue</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
         <v>11.4</v>
       </c>
-      <c r="R21" t="n">
+      <c r="T21" t="n">
         <v>25.17</v>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>14:58</t>
         </is>
       </c>
-      <c r="U21" t="n">
+      <c r="W21" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V21" t="n">
+      <c r="X21" t="n">
         <v>-21.19</v>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y21" t="n">
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA21" t="n">
         <v>1.14071</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AB21" t="n">
         <v>1.1323</v>
       </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="AD21" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr">
+        <is>
           <t>14:57</t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AG21" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AH21" t="inlineStr">
         <is>
           <t>Reverse</t>
         </is>
       </c>
-      <c r="AG21" t="n">
+      <c r="AI21" t="n">
         <v>15.9</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AJ21" t="n">
         <v>35.09934</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AK21" t="n">
         <v>0.9</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AL21" t="n">
         <v>1.98675</v>
       </c>
-      <c r="AK21" t="inlineStr">
+      <c r="AM21" t="inlineStr">
         <is>
           <t>16:38</t>
         </is>
       </c>
-      <c r="AL21" t="inlineStr">
+      <c r="AN21" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
@@ -3592,101 +3750,107 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
+          <t>14:58</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
           <t>Continue</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
         <v>79.09999999999999</v>
       </c>
-      <c r="R22" t="n">
+      <c r="T22" t="n">
         <v>131.4</v>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>14:59</t>
         </is>
       </c>
-      <c r="U22" t="n">
+      <c r="W22" t="n">
         <v>-74.5</v>
       </c>
-      <c r="V22" t="n">
+      <c r="X22" t="n">
         <v>-123.75</v>
       </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y22" t="n">
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA22" t="n">
         <v>1.13406</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AB22" t="n">
         <v>1.12103</v>
       </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="AC22" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
           <t>14:58</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr">
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AH22" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="AG22" t="n">
+      <c r="AI22" t="n">
         <v>14.9</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AJ22" t="n">
         <v>24.75083</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AK22" t="n">
         <v>7.9</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AL22" t="n">
         <v>13.12292</v>
       </c>
-      <c r="AK22" t="inlineStr">
+      <c r="AM22" t="inlineStr">
         <is>
           <t>16:44</t>
         </is>
       </c>
-      <c r="AL22" t="inlineStr">
+      <c r="AN22" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
@@ -3746,97 +3910,107 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>12:47</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
           <t>Sweep and Reverse</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
         <v>1.6</v>
       </c>
-      <c r="R23" t="n">
+      <c r="T23" t="n">
         <v>4.75</v>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>14:07</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>12:47</t>
         </is>
       </c>
-      <c r="U23" t="n">
+      <c r="W23" t="n">
         <v>44.5</v>
       </c>
-      <c r="V23" t="n">
+      <c r="X23" t="n">
         <v>132.05</v>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Y23" t="n">
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA23" t="n">
         <v>1.13845</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AB23" t="n">
         <v>1.12233</v>
       </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AH23" t="inlineStr">
         <is>
           <t>Reverse</t>
         </is>
       </c>
-      <c r="AG23" t="n">
+      <c r="AI23" t="n">
         <v>20.8</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AJ23" t="n">
         <v>61.72107</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AK23" t="n">
         <v>2.8</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AL23" t="n">
         <v>8.30861</v>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AM23" t="inlineStr">
         <is>
           <t>16:44</t>
         </is>
       </c>
-      <c r="AL23" t="inlineStr">
+      <c r="AN23" t="inlineStr">
         <is>
           <t>15:37</t>
         </is>
